--- a/biology/Botanique/Beauty_of_Bath/Beauty_of_Bath.xlsx
+++ b/biology/Botanique/Beauty_of_Bath/Beauty_of_Bath.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beauty of Bath est le nom d'un cultivar de pommier domestique,  code MUNQ 11.
 Elle est aussi nommée Pomme de Juillet. Cette dernière appellation plus générique peut couvrir d'autres variétés. 
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Fruit: sous moyen à moyen, plus large que haut.
 Épicarpe: couleur vert jaune abondamment fouetté et marbré de rouge.
@@ -551,7 +565,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Angleterre, 1864.
 </t>
@@ -582,7 +598,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Descendants:
 Discovery</t>
@@ -613,9 +631,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Groupe de pollinisation: B[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Groupe de pollinisation: B.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Susceptibilité aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Tavelure: très peu susceptible
 </t>
@@ -675,7 +697,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Maturité: début juillet
 </t>
